--- a/cross_dataset_comparisons/output/seabird-microbes/results_microbe_tests.xlsx
+++ b/cross_dataset_comparisons/output/seabird-microbes/results_microbe_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Documents/OSUDocs/Projects/French_Polynesia/Tetiaroa/Island_Survey/TARP_motu_comparison/cross_dataset_comparisons/output/seabird-microbes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C727399A-65E4-5F4F-BB0E-F8A44843FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED3525-553E-1A4C-BAF3-700B4B5FAFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="520" windowWidth="28040" windowHeight="16300" activeTab="2" xr2:uid="{4FB2862D-2AED-284B-B8B7-6F6128E0CB7B}"/>
+    <workbookView xWindow="9940" yWindow="840" windowWidth="28040" windowHeight="16300" activeTab="2" xr2:uid="{4FB2862D-2AED-284B-B8B7-6F6128E0CB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Coral Microbes vs. Seabirds" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Coral Microbes vs. N15" sheetId="2" r:id="rId3"/>
     <sheet name="Water Microbes vs. N15" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="74">
   <si>
     <t>distribution</t>
   </si>
@@ -92,15 +92,9 @@
     <t>shannon</t>
   </si>
   <si>
-    <t>glmmPQL(Shannon~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, family="poisson")</t>
-  </si>
-  <si>
     <t>Faith's Phylogenetic Div</t>
   </si>
   <si>
-    <t>glmmPQL(FaithPD~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, family="poisson")</t>
-  </si>
-  <si>
     <t>Faith's Phylogenetic Diversity</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Endozoicomonas Rel Abundance</t>
   </si>
   <si>
-    <t>glmmPQL(Endo100~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, family="poisson")</t>
-  </si>
-  <si>
     <t>glmmPQL(Observed~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=water.microbes.seabirds, family="poisson")</t>
   </si>
   <si>
@@ -144,6 +135,132 @@
   </si>
   <si>
     <t>glmmPQL(y ~ algae.N15*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, family=gaussian(link="log"))</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Endozoicomonas ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = endo_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Endozoicomonas ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = endo_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Ca. Amoebophilus</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Cytophagales_Candidatus_Amoebophilus ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = ameob_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Cytophagales_Candidatus_Amoebophilus ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = ameob_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Uncultured Alteromonadaceae</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Uncultured_Alteromonadaceaeae ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = alter_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Uncultured_Alteromonadaceaeae ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = alter_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>7.008e -05</t>
+  </si>
+  <si>
+    <t>Woesearchaeales</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Woesearchaeales_SCGC_AAA286E23 ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = woes_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Woesearchaeales_SCGC_AAA286E23 ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = woes_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Litoricola</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Litoricola ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = lit_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Litoricola ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = lit_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>lme(NMDS2~algae.N15*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, method = "REML", na.action = na.omit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lme(NMDS1~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, method = "REML")</t>
+  </si>
+  <si>
+    <t>glmmPQL(y~ seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=water.microbes.seabirds, family=gaussian(link="log"))</t>
+  </si>
+  <si>
+    <t>glmmPQL(y ~ algae.N15*Distance_to_shore + Exposure, random=~1|site.name, data=water.microbes.seabirds, family=gaussian(link="log"))</t>
+  </si>
+  <si>
+    <t>lme(NMDS1~algae.N15*Distance_to_shore + Exposure, random=~1|site.name, data=water.microbes.seabirds, method = "REML", na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>lme(NMDS1~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=water.microbes.seabirds, method = "REML")</t>
+  </si>
+  <si>
+    <t>lme(NMDS2~algae.N15*Distance_to_shore + Exposure, random=~1|site.name, data=water.microbes.seabirds, method = "REML", na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>lme(NMDS2~seabird_level*Distance_to_shore + Exposure, random=~1|site.name, data=coral.microbes.seabirds, method = "REML")</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Synechococcus ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Synechococcus</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Synechococcus ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Synechococcus Relative Abundance</t>
+  </si>
+  <si>
+    <t>Synechococcus Relative Abundance (with AIE protected removed)</t>
+  </si>
+  <si>
+    <t>Litoricola Rel Abund</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Litoricola ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Litoricola Relative Abundance</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Litoricola ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>Prochlorococcus Relative Abundance</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Prochlorococcus ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Prochlorococcus ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>SAR86</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_SAR86_Clade ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>SAR86 Relative Abundance</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_SAR86_Clade ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Uncultured_Alteromonadaceaeae ~ seabird_level*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
+  </si>
+  <si>
+    <t>glmmTMB(RelAbund_Uncultured_Alteromonadaceaeae ~ algae.N15*Distance_to_shore + Exposure + (1|site.name), family = beta_family(), data = syn_trans, na.action = na.omit)</t>
   </si>
 </sst>
 </file>
@@ -192,11 +309,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,15 +651,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B729F82-9664-A14D-9996-AC65BDBE4BA8}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -553,16 +673,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -575,302 +692,574 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>8.0500000000000007</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>2.17</v>
+      </c>
       <c r="F3">
-        <v>2.17</v>
-      </c>
-      <c r="G3">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="F4">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G4">
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5">
+        <v>11.11</v>
+      </c>
       <c r="F5">
-        <v>11.11</v>
-      </c>
-      <c r="G5">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6">
+        <v>2.4500000000000002</v>
+      </c>
       <c r="F6">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G6">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>0.69</v>
+      </c>
       <c r="F7">
-        <v>0.69</v>
-      </c>
-      <c r="G7">
         <v>0.877</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8">
+        <v>0.52</v>
+      </c>
       <c r="F8">
-        <v>0.52</v>
-      </c>
-      <c r="G8">
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="E9">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="F9">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="G9">
         <v>0.222</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="E10">
+        <v>4.7</v>
+      </c>
       <c r="F10">
-        <v>4.7</v>
-      </c>
-      <c r="G10" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>1.77</v>
+      </c>
       <c r="F11">
-        <v>1.77</v>
-      </c>
-      <c r="G11">
         <v>0.621</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>11</v>
       </c>
+      <c r="E12">
+        <v>1.248</v>
+      </c>
       <c r="F12">
-        <v>1.248</v>
-      </c>
-      <c r="G12">
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>12</v>
       </c>
+      <c r="E13">
+        <v>7.83</v>
+      </c>
       <c r="F13">
-        <v>7.83</v>
-      </c>
-      <c r="G13">
         <v>0.251</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
+      <c r="E14">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="F14">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G14">
         <v>0.997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
+      <c r="E15">
+        <v>0.89900000000000002</v>
+      </c>
       <c r="F15">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="G15">
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
       <c r="F16">
-        <v>1E-3</v>
-      </c>
-      <c r="G16">
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>12</v>
       </c>
+      <c r="E17">
+        <v>0.88</v>
+      </c>
       <c r="F17">
-        <v>0.88</v>
-      </c>
-      <c r="G17">
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1.89</v>
+      </c>
+      <c r="F18">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>6.5</v>
+      </c>
+      <c r="F19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0.89</v>
+      </c>
+      <c r="F20">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>6.34</v>
+      </c>
+      <c r="F21">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
+      <c r="E22">
+        <v>1.89</v>
+      </c>
       <c r="F22">
-        <v>1.89</v>
-      </c>
-      <c r="G22">
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>10</v>
       </c>
+      <c r="E23">
+        <v>6.5</v>
+      </c>
       <c r="F23">
-        <v>6.5</v>
-      </c>
-      <c r="G23">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>11</v>
       </c>
+      <c r="E24">
+        <v>0.89</v>
+      </c>
       <c r="F24">
-        <v>0.89</v>
-      </c>
-      <c r="G24">
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>12</v>
       </c>
+      <c r="E25">
+        <v>6.34</v>
+      </c>
       <c r="F25">
-        <v>6.34</v>
-      </c>
-      <c r="G25">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>4.38</v>
+      </c>
+      <c r="F26">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1.71</v>
+      </c>
+      <c r="F27">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0.51</v>
+      </c>
+      <c r="F28">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>12</v>
+      </c>
+      <c r="E29">
+        <v>3.65</v>
+      </c>
+      <c r="F29">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>1.88</v>
+      </c>
+      <c r="F30">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0.06</v>
+      </c>
+      <c r="F32">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>3.52</v>
+      </c>
+      <c r="F33">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>1.71</v>
+      </c>
+      <c r="F34">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>5.07</v>
+      </c>
+      <c r="F35">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F36">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>5.46</v>
+      </c>
+      <c r="F37">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F38">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>1.24</v>
+      </c>
+      <c r="F39">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F41">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>1.53</v>
+      </c>
+      <c r="F42">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>6.77</v>
+      </c>
+      <c r="F43">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>10.57</v>
+      </c>
+      <c r="F45">
+        <v>0.10299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -880,15 +1269,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490E0DC7-B76E-0E4A-909E-AC3583D67394}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,16 +1291,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -919,217 +1305,632 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2">
+        <v>0.89</v>
+      </c>
       <c r="F2">
-        <v>0.89</v>
-      </c>
-      <c r="G2">
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>3.36</v>
+      </c>
       <c r="F3">
-        <v>3.36</v>
-      </c>
-      <c r="G3">
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>0.04</v>
+      </c>
       <c r="F4">
-        <v>0.04</v>
-      </c>
-      <c r="G4">
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5">
+        <v>8.56</v>
+      </c>
       <c r="F5">
-        <v>8.56</v>
-      </c>
-      <c r="G5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.95</v>
+      </c>
+      <c r="F6">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.44</v>
+      </c>
+      <c r="F7">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1.98</v>
+      </c>
+      <c r="F9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.88</v>
+      </c>
+      <c r="F10">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0.03</v>
+      </c>
+      <c r="F12">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>9.06</v>
+      </c>
+      <c r="F13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+      <c r="F16">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1.31</v>
+      </c>
+      <c r="F17">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0.59</v>
+      </c>
+      <c r="F18">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1.46</v>
+      </c>
+      <c r="F19">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>3.92</v>
+      </c>
+      <c r="F21">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1.95</v>
+      </c>
+      <c r="F22">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>11.07</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1.61</v>
+      </c>
+      <c r="F26">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>42.73</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.8119999999999998E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>12</v>
+      </c>
+      <c r="E29">
+        <v>15.731999999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>3.09</v>
+      </c>
+      <c r="F30">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>2.92</v>
+      </c>
+      <c r="F31">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0.77</v>
+      </c>
+      <c r="F32">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>14.77</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>1.49</v>
+      </c>
+      <c r="F34">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0.02</v>
+      </c>
+      <c r="F36">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0.99</v>
+      </c>
+      <c r="F37">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>2.9</v>
+      </c>
+      <c r="F38">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>6.0019999999999998</v>
+      </c>
+      <c r="F41">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>2.74</v>
+      </c>
+      <c r="F42">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F43">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>2.23</v>
+      </c>
+      <c r="F45">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>1.79</v>
+      </c>
+      <c r="F46">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>2.81</v>
+      </c>
+      <c r="F47">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="F48">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>0.27</v>
+      </c>
+      <c r="F49">
+        <v>0.99960000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1940,628 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8EC857-4A39-AA4E-9E6F-0027CBA0BE89}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4.32</v>
+      </c>
+      <c r="F3">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3.88</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>5.31</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>4.26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2.95</v>
+      </c>
+      <c r="F7">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>1.72</v>
+      </c>
+      <c r="F8">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3.43</v>
+      </c>
+      <c r="F9">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>5.68</v>
+      </c>
+      <c r="F11">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>3.73</v>
+      </c>
+      <c r="F12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>4.26</v>
+      </c>
+      <c r="F13">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0.94</v>
+      </c>
+      <c r="F14">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0.82</v>
+      </c>
+      <c r="F15">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0.06</v>
+      </c>
+      <c r="F16">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1.33</v>
+      </c>
+      <c r="F17">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>5.63</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>7.85</v>
+      </c>
+      <c r="F19">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>2.12</v>
+      </c>
+      <c r="F20">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>7.28</v>
+      </c>
+      <c r="F21">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0.76</v>
+      </c>
+      <c r="F22">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>3.05</v>
+      </c>
+      <c r="F23">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>0.15</v>
+      </c>
+      <c r="F24">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>3.6</v>
+      </c>
+      <c r="F26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0.68</v>
+      </c>
+      <c r="F28">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>2.4</v>
+      </c>
+      <c r="F29">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>0.82</v>
+      </c>
+      <c r="F30">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F31">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0.02</v>
+      </c>
+      <c r="F32">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>1.58</v>
+      </c>
+      <c r="F33">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>7.008</v>
+      </c>
+      <c r="F34" s="2">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>21.85</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F36">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0.34</v>
+      </c>
+      <c r="F38">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>1.05</v>
+      </c>
+      <c r="F39">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="F40">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0.34</v>
+      </c>
+      <c r="F41">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>2.39</v>
+      </c>
+      <c r="F42">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>7.68</v>
+      </c>
+      <c r="F43">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>0.08</v>
+      </c>
+      <c r="F44">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>3.45</v>
+      </c>
+      <c r="F45">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517A54D-90B6-8F41-8637-5A8B66C5F943}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,16 +2597,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1195,10 +2614,10 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>4.32</v>
+        <v>3.298</v>
       </c>
       <c r="G3">
-        <v>0.22900000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1206,10 +2625,10 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>3.88</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1217,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>5.31</v>
+        <v>1.71</v>
       </c>
       <c r="G5">
-        <v>0.15</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1228,19 +2647,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>4.26</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3.9E-2</v>
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.372</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1248,10 +2667,10 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>2.95</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G7">
-        <v>0.39900000000000002</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1259,10 +2678,10 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>1.72</v>
+        <v>0.02</v>
       </c>
       <c r="G8">
-        <v>0.19</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,30 +2689,30 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>3.43</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G9">
-        <v>0.33</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.35</v>
+      </c>
+      <c r="G10">
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1301,10 +2720,10 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>5.68</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.129</v>
+        <v>4.32</v>
+      </c>
+      <c r="G11">
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1312,10 +2731,10 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>3.73</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>0.15</v>
+      </c>
+      <c r="G12">
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1323,30 +2742,30 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>4.26</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.23499999999999999</v>
+        <v>1.92</v>
+      </c>
+      <c r="G13">
+        <v>0.59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
-        <v>0.94</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.33</v>
+        <v>1.101</v>
+      </c>
+      <c r="G14">
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1354,10 +2773,10 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>0.82</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.84499999999999997</v>
+        <v>0.43</v>
+      </c>
+      <c r="G15">
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1365,10 +2784,10 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <v>0.06</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.81100000000000005</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,47 +2795,83 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>1.33</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.72299999999999998</v>
+        <v>1.069</v>
+      </c>
+      <c r="G17">
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
+      <c r="F18">
+        <v>1.202</v>
+      </c>
+      <c r="G18">
+        <v>0.27300000000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>10</v>
       </c>
+      <c r="F19">
+        <v>2.65</v>
+      </c>
+      <c r="G19">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>11</v>
       </c>
+      <c r="F20">
+        <v>0.11</v>
+      </c>
+      <c r="G20">
+        <v>0.73599999999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>12</v>
       </c>
+      <c r="F21">
+        <v>1.022</v>
+      </c>
+      <c r="G21">
+        <v>0.79600000000000004</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="F22">
-        <v>0.76</v>
+        <v>1.24</v>
       </c>
       <c r="G22">
-        <v>0.38300000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1424,10 +2879,10 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="G23">
-        <v>0.38400000000000001</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1435,10 +2890,10 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>0.15</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.70399999999999996</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,129 +2901,332 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.76900000000000002</v>
+        <v>0.32</v>
+      </c>
+      <c r="G25">
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="F26">
+        <v>10.44</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.235E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="F27">
+        <v>8.66</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.4200000000000001E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>11</v>
       </c>
+      <c r="F28">
+        <v>0.996</v>
+      </c>
+      <c r="G28">
+        <v>0.318</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="F29">
+        <v>6.42</v>
+      </c>
+      <c r="G29">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1.47</v>
+      </c>
+      <c r="G31">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>5.33</v>
+      </c>
+      <c r="G33">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>0.82</v>
+      </c>
+      <c r="G34">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G35">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>1E-4</v>
+      </c>
+      <c r="G36">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>4.78</v>
+      </c>
+      <c r="G37">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G38">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1.86</v>
+      </c>
+      <c r="G39">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>0.98</v>
+      </c>
+      <c r="G42">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>1.23</v>
+      </c>
+      <c r="G43">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>0.15</v>
+      </c>
+      <c r="G44">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>0.72</v>
+      </c>
+      <c r="G45">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>0.33</v>
+      </c>
+      <c r="G46">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>1.47</v>
+      </c>
+      <c r="G47">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>0.16</v>
+      </c>
+      <c r="G48">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>6.26</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0517A54D-90B6-8F41-8637-5A8B66C5F943}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>0.2</v>
-      </c>
-      <c r="G2">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3.298</v>
-      </c>
-      <c r="G3">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1.71</v>
-      </c>
-      <c r="G5">
-        <v>0.63500000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>